--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Slit1</t>
+  </si>
+  <si>
+    <t>Sdc1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Slit1</t>
-  </si>
-  <si>
-    <t>Sdc1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H2">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I2">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J2">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N2">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q2">
-        <v>0.2344231601428888</v>
+        <v>1.368959431618222</v>
       </c>
       <c r="R2">
-        <v>2.109808441286</v>
+        <v>12.320634884564</v>
       </c>
       <c r="S2">
-        <v>0.006190029570771841</v>
+        <v>0.02963626938931907</v>
       </c>
       <c r="T2">
-        <v>0.006190029570771839</v>
+        <v>0.02963626938931907</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H3">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I3">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J3">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.705039</v>
       </c>
       <c r="O3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q3">
-        <v>2.704859037771222</v>
+        <v>5.638579138172887</v>
       </c>
       <c r="R3">
-        <v>24.343731339941</v>
+        <v>50.747212243556</v>
       </c>
       <c r="S3">
-        <v>0.07142279550522145</v>
+        <v>0.122068226751141</v>
       </c>
       <c r="T3">
-        <v>0.07142279550522145</v>
+        <v>0.122068226751141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H4">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I4">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J4">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N4">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q4">
-        <v>3.186031497716888</v>
+        <v>7.300761041726222</v>
       </c>
       <c r="R4">
-        <v>28.67428347945199</v>
+        <v>65.706849375536</v>
       </c>
       <c r="S4">
-        <v>0.08412833088785696</v>
+        <v>0.1580523980348199</v>
       </c>
       <c r="T4">
-        <v>0.08412833088785694</v>
+        <v>0.1580523980348199</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H5">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I5">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J5">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N5">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O5">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P5">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q5">
-        <v>0.3124939723042222</v>
+        <v>0.3457414903831111</v>
       </c>
       <c r="R5">
-        <v>2.812445750738</v>
+        <v>3.111673413448</v>
       </c>
       <c r="S5">
-        <v>0.0082515180158481</v>
+        <v>0.007484873336199862</v>
       </c>
       <c r="T5">
-        <v>0.0082515180158481</v>
+        <v>0.007484873336199862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5335346666666666</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H6">
-        <v>1.600604</v>
+        <v>1.2334</v>
       </c>
       <c r="I6">
-        <v>0.3543686128405277</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J6">
-        <v>0.3543686128405276</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N6">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q6">
-        <v>0.4886811186195555</v>
+        <v>1.054898377711111</v>
       </c>
       <c r="R6">
-        <v>4.398130067575999</v>
+        <v>9.494085399399999</v>
       </c>
       <c r="S6">
-        <v>0.01290380427040187</v>
+        <v>0.02283723810810553</v>
       </c>
       <c r="T6">
-        <v>0.01290380427040187</v>
+        <v>0.02283723810810553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5335346666666666</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H7">
-        <v>1.600604</v>
+        <v>1.2334</v>
       </c>
       <c r="I7">
-        <v>0.3543686128405277</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J7">
-        <v>0.3543686128405276</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>31.705039</v>
       </c>
       <c r="O7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q7">
-        <v>5.638579138172887</v>
+        <v>4.344999455844444</v>
       </c>
       <c r="R7">
-        <v>50.747212243556</v>
+        <v>39.1049951026</v>
       </c>
       <c r="S7">
-        <v>0.1488887513552536</v>
+        <v>0.09406383519899822</v>
       </c>
       <c r="T7">
-        <v>0.1488887513552536</v>
+        <v>0.09406383519899822</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5335346666666666</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H8">
-        <v>1.600604</v>
+        <v>1.2334</v>
       </c>
       <c r="I8">
-        <v>0.3543686128405277</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J8">
-        <v>0.3543686128405276</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N8">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q8">
-        <v>6.641636582803554</v>
+        <v>5.625850409511112</v>
       </c>
       <c r="R8">
-        <v>59.77472924523199</v>
+        <v>50.6326536856</v>
       </c>
       <c r="S8">
-        <v>0.1753748512767038</v>
+        <v>0.1217926656038263</v>
       </c>
       <c r="T8">
-        <v>0.1753748512767037</v>
+        <v>0.1217926656038263</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5335346666666666</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H9">
-        <v>1.600604</v>
+        <v>1.2334</v>
       </c>
       <c r="I9">
-        <v>0.3543686128405277</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J9">
-        <v>0.3543686128405276</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N9">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O9">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P9">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q9">
-        <v>0.6514283992008888</v>
+        <v>0.2664228967555556</v>
       </c>
       <c r="R9">
-        <v>5.862855592808</v>
+        <v>2.3978060708</v>
       </c>
       <c r="S9">
-        <v>0.01720120593816842</v>
+        <v>0.005767724417075622</v>
       </c>
       <c r="T9">
-        <v>0.01720120593816841</v>
+        <v>0.005767724417075622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,14 +1018,14 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4368670000000001</v>
+        <v>0.737124</v>
       </c>
       <c r="H10">
-        <v>1.310601</v>
+        <v>2.211372</v>
       </c>
       <c r="I10">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J10">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N10">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q10">
-        <v>0.4001401737993334</v>
+        <v>1.891335118628</v>
       </c>
       <c r="R10">
-        <v>3.601261564194</v>
+        <v>17.022016067652</v>
       </c>
       <c r="S10">
-        <v>0.01056584813020145</v>
+        <v>0.04094505343732571</v>
       </c>
       <c r="T10">
-        <v>0.01056584813020145</v>
+        <v>0.04094505343732571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4368670000000001</v>
+        <v>0.737124</v>
       </c>
       <c r="H11">
-        <v>1.310601</v>
+        <v>2.211372</v>
       </c>
       <c r="I11">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J11">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.705039</v>
       </c>
       <c r="O11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q11">
-        <v>4.616961757604334</v>
+        <v>7.790181722611999</v>
       </c>
       <c r="R11">
-        <v>41.552655818439</v>
+        <v>70.111635503508</v>
       </c>
       <c r="S11">
-        <v>0.1219125695143501</v>
+        <v>0.1686477471798922</v>
       </c>
       <c r="T11">
-        <v>0.1219125695143501</v>
+        <v>0.1686477471798922</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4368670000000001</v>
+        <v>0.737124</v>
       </c>
       <c r="H12">
-        <v>1.310601</v>
+        <v>2.211372</v>
       </c>
       <c r="I12">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J12">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N12">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q12">
-        <v>5.438281765545334</v>
+        <v>10.086628889072</v>
       </c>
       <c r="R12">
-        <v>48.944535889908</v>
+        <v>90.779660001648</v>
       </c>
       <c r="S12">
-        <v>0.1435998257271001</v>
+        <v>0.2183629726947176</v>
       </c>
       <c r="T12">
-        <v>0.1435998257271</v>
+        <v>0.2183629726947175</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4368670000000001</v>
+        <v>0.737124</v>
       </c>
       <c r="H13">
-        <v>1.310601</v>
+        <v>2.211372</v>
       </c>
       <c r="I13">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J13">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N13">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O13">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P13">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q13">
-        <v>0.5334003360113334</v>
+        <v>0.477671585896</v>
       </c>
       <c r="R13">
-        <v>4.800603024102</v>
+        <v>4.299044273063999</v>
       </c>
       <c r="S13">
-        <v>0.01408463161642072</v>
+        <v>0.01034099584857901</v>
       </c>
       <c r="T13">
-        <v>0.01408463161642072</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.279251</v>
-      </c>
-      <c r="H14">
-        <v>0.837753</v>
-      </c>
-      <c r="I14">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="J14">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.9159313333333333</v>
-      </c>
-      <c r="N14">
-        <v>2.747794</v>
-      </c>
-      <c r="O14">
-        <v>0.03641350786393945</v>
-      </c>
-      <c r="P14">
-        <v>0.03641350786393945</v>
-      </c>
-      <c r="Q14">
-        <v>0.2557747407646667</v>
-      </c>
-      <c r="R14">
-        <v>2.301972666882</v>
-      </c>
-      <c r="S14">
-        <v>0.006753825892564293</v>
-      </c>
-      <c r="T14">
-        <v>0.00675382589256429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.279251</v>
-      </c>
-      <c r="H15">
-        <v>0.837753</v>
-      </c>
-      <c r="I15">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="J15">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>10.56834633333333</v>
-      </c>
-      <c r="N15">
-        <v>31.705039</v>
-      </c>
-      <c r="O15">
-        <v>0.4201521973455823</v>
-      </c>
-      <c r="P15">
-        <v>0.4201521973455823</v>
-      </c>
-      <c r="Q15">
-        <v>2.951221281929666</v>
-      </c>
-      <c r="R15">
-        <v>26.560991537367</v>
-      </c>
-      <c r="S15">
-        <v>0.07792808097075715</v>
-      </c>
-      <c r="T15">
-        <v>0.07792808097075715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.279251</v>
-      </c>
-      <c r="H16">
-        <v>0.837753</v>
-      </c>
-      <c r="I16">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="J16">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>12.44836933333333</v>
-      </c>
-      <c r="N16">
-        <v>37.345108</v>
-      </c>
-      <c r="O16">
-        <v>0.4948938617078529</v>
-      </c>
-      <c r="P16">
-        <v>0.4948938617078529</v>
-      </c>
-      <c r="Q16">
-        <v>3.476219584702666</v>
-      </c>
-      <c r="R16">
-        <v>31.285976262324</v>
-      </c>
-      <c r="S16">
-        <v>0.09179085381619215</v>
-      </c>
-      <c r="T16">
-        <v>0.09179085381619212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.279251</v>
-      </c>
-      <c r="H17">
-        <v>0.837753</v>
-      </c>
-      <c r="I17">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="J17">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>1.220967333333333</v>
-      </c>
-      <c r="N17">
-        <v>3.662902</v>
-      </c>
-      <c r="O17">
-        <v>0.04854043308262539</v>
-      </c>
-      <c r="P17">
-        <v>0.04854043308262538</v>
-      </c>
-      <c r="Q17">
-        <v>0.3409563488006666</v>
-      </c>
-      <c r="R17">
-        <v>3.068607139206</v>
-      </c>
-      <c r="S17">
-        <v>0.009003077512188153</v>
-      </c>
-      <c r="T17">
-        <v>0.009003077512188149</v>
+        <v>0.01034099584857901</v>
       </c>
     </row>
   </sheetData>
